--- a/Documentación/Tareas y presupestos.xlsx
+++ b/Documentación/Tareas y presupestos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Documents\facultad\ingenieria 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="141"/>
   </bookViews>
@@ -11,22 +16,16 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Nombre de tarea</t>
   </si>
   <si>
-    <t>Trabajo</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
     <t>Análisis del problema</t>
   </si>
   <si>
@@ -90,9 +89,6 @@
     <t>5hs</t>
   </si>
   <si>
-    <t>Manual de Usuario</t>
-  </si>
-  <si>
     <t>Diseño Arquitectónico del Sistema</t>
   </si>
   <si>
@@ -100,17 +96,49 @@
   </si>
   <si>
     <t>61,5hs</t>
+  </si>
+  <si>
+    <t>Cant. Personas</t>
+  </si>
+  <si>
+    <t>Esfuerzo (hs) Unitario</t>
+  </si>
+  <si>
+    <t>Esfuerzo (hs) Subtotal</t>
+  </si>
+  <si>
+    <t>12hs</t>
+  </si>
+  <si>
+    <t>1,5hs</t>
+  </si>
+  <si>
+    <t>9hs</t>
+  </si>
+  <si>
+    <t>16hs</t>
+  </si>
+  <si>
+    <t>18hs</t>
+  </si>
+  <si>
+    <t>8hs</t>
+  </si>
+  <si>
+    <t>15hs</t>
+  </si>
+  <si>
+    <t>144,5hs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,6 +147,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -143,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,15 +195,40 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -209,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +307,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,268 +518,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="23"/>
     <col min="3" max="3" width="23.140625"/>
-    <col min="4" max="4" width="23"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="6" width="23.140625"/>
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="12.75">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.75">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
-        <v>400</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
-        <v>300</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="12.75">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>600</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="12.75">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="12.75">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
-        <v>800</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="12.75">
-      <c r="A9" s="2" t="s">
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>600</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>600</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="12.75">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>600</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="12.75">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.75">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="12.75">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="12.75">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>800</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="2" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>600</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
-        <v>14700</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
@@ -720,12 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
@@ -739,12 +851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>

--- a/Documentación/Tareas y presupestos.xlsx
+++ b/Documentación/Tareas y presupestos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Documents\facultad\ingenieria 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Nombre de tarea</t>
   </si>
@@ -59,9 +59,6 @@
     <t>6hs</t>
   </si>
   <si>
-    <t>Desarrollo de los C.U.</t>
-  </si>
-  <si>
     <t>Definición de tareas</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>61,5hs</t>
-  </si>
-  <si>
     <t>Cant. Personas</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>9hs</t>
   </si>
   <si>
-    <t>16hs</t>
-  </si>
-  <si>
     <t>18hs</t>
   </si>
   <si>
@@ -128,7 +119,16 @@
     <t>15hs</t>
   </si>
   <si>
-    <t>144,5hs</t>
+    <t>Programacion PHP</t>
+  </si>
+  <si>
+    <t>24hs</t>
+  </si>
+  <si>
+    <t>48hs</t>
+  </si>
+  <si>
+    <t>176,5hs</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -644,13 +644,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -662,10 +662,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -674,13 +674,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -689,13 +689,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -704,13 +704,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -719,13 +719,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -734,13 +734,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -749,43 +749,43 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -796,20 +796,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="7"/>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="8"/>
       <c r="D20" s="10" t="s">
         <v>35</v>
